--- a/Connected Office Test Data.xlsx
+++ b/Connected Office Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacqui.Muller\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chevonne Serfotein\Documents\UiPath\Connected_Office_Web_Application_-_User_Acceptance_Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAB8EEF-425E-42A8-A7F1-FF25847C778D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989A8D8A-3C57-4CFA-BDE5-B9CD9E8A6DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Device" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,142 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chevonne Serfotein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{C754F476-1088-4336-9472-651A91A9BB31}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chevonne Serfotein:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mine, is used for UiPath</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chevonne Serfotein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6D88607D-B5B0-41CB-954D-D48DE72C216A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chevonne Serfotein:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mine, is used for UiPath</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chevonne Serfotein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F9634A65-C9DF-42E9-B681-65D7316BCE51}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chevonne Serfotein:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mine, is used for UiPath</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Chevonne Serfotein</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DDB6174F-725D-40BC-9DA1-A756DE7E813A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Chevonne Serfotein:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not mine, is used for UiPath</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
@@ -296,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,6 +453,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,11 +832,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,15 +1052,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,16 +1183,15 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1120,15 +1269,16 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243FE4D3-E987-44A9-BA20-E766DD09E091}">
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,5 +1699,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>